--- a/Descargas/R15_1º Juzgado De Letras De San Carlos_Familia_Sentencias Por Delito_2020-Enero.xlsx
+++ b/Descargas/R15_1º Juzgado De Letras De San Carlos_Familia_Sentencias Por Delito_2020-Enero.xlsx
@@ -200,7 +200,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <cols>
-    <col min="1" max="1" width="52.650000000000006" customWidth="1"/>
+    <col min="1" max="1" width="35.1" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -215,7 +215,7 @@
     <row r="2">
       <c t="inlineStr" r="A2" s="2">
         <is>
-          <t xml:space="preserve">Materia</t>
+          <t xml:space="preserve">Tipo de Causa</t>
         </is>
       </c>
       <c t="inlineStr" r="B2" s="2">
@@ -227,111 +227,91 @@
     <row r="3">
       <c t="inlineStr" r="A3">
         <is>
-          <t xml:space="preserve">Adopcion</t>
+          <t xml:space="preserve">Avenimiento</t>
         </is>
       </c>
       <c r="B3" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos</t>
+          <t xml:space="preserve">Conciliación</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">Autorizaciones</t>
+          <t xml:space="preserve">Desistimiento</t>
         </is>
       </c>
       <c r="B5" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
+          <t xml:space="preserve">Incompetencia</t>
         </is>
       </c>
       <c r="B6" s="65">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
+          <t xml:space="preserve">Mediación</t>
         </is>
       </c>
       <c r="B7" s="65">
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
+          <t xml:space="preserve">No Da Curso A La Demanda</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Guardador Menores De Edad, Nombramiento</t>
+          <t xml:space="preserve">No Da Curso A La Solicitud</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Infracción A La Ley Penal</t>
+          <t xml:space="preserve">Sentencia</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Paternidad, Reconocimiento De</t>
+          <t xml:space="preserve">Transacción</t>
         </is>
       </c>
       <c r="B11" s="65">
         <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="inlineStr" r="A12">
-        <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
-        </is>
-      </c>
-      <c r="B12" s="65">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="inlineStr" r="A13">
-        <is>
-          <t xml:space="preserve">Vulneración De Derechos</t>
-        </is>
-      </c>
-      <c r="B13" s="65">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
